--- a/Excel/__Experiments/advanced_filter.xlsx
+++ b/Excel/__Experiments/advanced_filter.xlsx
@@ -5,28 +5,34 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Projects\Excel\__Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\Projects\Excel\__Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2DEA13-9B0C-43E1-9D2F-711D64FD550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9542667-D7EC-4496-85BE-8D1C907CE2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="3600" windowWidth="34320" windowHeight="15225" xr2:uid="{9CCF18AE-1689-4A18-B611-4BD99D66156A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{9CCF18AE-1689-4A18-B611-4BD99D66156A}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula (sum)" sheetId="4" r:id="rId1"/>
     <sheet name="Formula" sheetId="3" r:id="rId2"/>
-    <sheet name="Exact String" sheetId="2" r:id="rId3"/>
-    <sheet name="Number" sheetId="1" r:id="rId4"/>
+    <sheet name="Exact String" sheetId="5" r:id="rId3"/>
+    <sheet name="Number" sheetId="6" r:id="rId4"/>
+    <sheet name="Or1" sheetId="7" r:id="rId5"/>
+    <sheet name="Or2" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exact String'!$B$4:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Formula!$B$4:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formula (sum)'!$B$4:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Number!$B$4:$E$14</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">'Exact String'!$C$17:$C$18</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">Formula!$C$18:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Number!$B$4:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Or1'!$B$4:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Or2'!$B$4:$F$14</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'Exact String'!$C$17:$C$19</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">Formula!$C$17:$C$19</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'Formula (sum)'!$C$17:$C$19</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">Number!$C$17:$C$18</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Number!$C$18:$C$19</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">'Or1'!$C$18:$D$20</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">'Or2'!$C$17:$C$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,13 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
-  <si>
-    <t>Filter Number</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="30">
   <si>
     <t>Sales Person</t>
   </si>
@@ -90,9 +90,6 @@
     <t>&gt;10</t>
   </si>
   <si>
-    <t>Case Sensitive Text</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -133,6 +130,21 @@
   </si>
   <si>
     <t>Advanced Filter with Criteria Range in Excel (18 Applications) - ExcelDemy</t>
+  </si>
+  <si>
+    <t>=F5&gt;350</t>
+  </si>
+  <si>
+    <t>=EXACT(D5, "NEW YORK")</t>
+  </si>
+  <si>
+    <t>&gt; 10</t>
+  </si>
+  <si>
+    <t>&gt;500</t>
+  </si>
+  <si>
+    <t>=OR(E5&gt;10,F5&gt;300)</t>
   </si>
 </sst>
 </file>
@@ -236,9 +248,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,13 +271,17 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -291,15 +306,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>419407</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>320</xdr:rowOff>
+      <xdr:colOff>371782</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -322,8 +337,253 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="752475"/>
+          <a:off x="5895975" y="190500"/>
           <a:ext cx="2200582" cy="2295845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381307</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Graphical user interface, application&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548A23C1-F6B4-F688-95BE-1193A5D4E120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="180975"/>
+          <a:ext cx="2200582" cy="2286319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>362256</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Graphical user interface, application&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A662648-7DBD-D49C-7265-FCAA4A4E082D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="180975"/>
+          <a:ext cx="2191056" cy="2295845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>362256</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Graphical user interface, application&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9604486C-38FA-CE76-93B6-B5B352C0DAC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="180975"/>
+          <a:ext cx="2191056" cy="2314898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371783</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Graphical user interface, application&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B563FB-08A8-2898-ED0C-5660C752E7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="180975"/>
+          <a:ext cx="2210108" cy="2295845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390835</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Graphical user interface, application&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF14A89-BBD8-3494-B168-CD38CD7297E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="171450"/>
+          <a:ext cx="2219635" cy="2305372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -635,8 +895,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,15 +908,15 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -664,249 +924,249 @@
       <c r="F2" s="11"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>44567</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>44567</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>200</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f>E5*F5</f>
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>44568</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>320</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H14" si="0">E6*F6</f>
         <v>2560</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>44569</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
         <v>9</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>360</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>3240</v>
       </c>
     </row>
     <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>44570</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>200</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>44571</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>480</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>5760</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>44572</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
         <v>15</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>600</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
     <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>44573</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6">
-        <v>6</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>240</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>44574</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>320</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>44575</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
         <v>12</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>480</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>5760</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>44576</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
         <v>15</v>
       </c>
-      <c r="E14" s="6">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>600</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>11</v>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>24</v>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="b">
+      <c r="C19" s="3" t="b">
         <f>E5*F5&gt;2000</f>
         <v>0</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>25</v>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -924,10 +1184,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AAAEE2-D1C4-49A6-AF61-568CCBDC6E5D}">
-  <dimension ref="B2:F19"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,655 +1198,1260 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>44567</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>44568</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>44569</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>44570</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>44572</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>44573</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>44567</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>44574</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>44575</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>44568</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>44576</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>44569</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>44570</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>44571</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>44572</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>44573</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6">
-        <v>6</v>
-      </c>
-      <c r="F11" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>44574</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>44575</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6">
-        <v>12</v>
-      </c>
-      <c r="F13" s="7">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>44576</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="6">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="b">
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="b">
         <f>F5&gt;350</f>
         <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O1" r:id="rId1" location="Download_Practice_Workbook" display="https://www.exceldemy.com/excel-advanced-filter-criteria-range/ - Download_Practice_Workbook" xr:uid="{32B768CC-226F-4790-AFF7-29289B1AA747}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C18D49-AECC-4C3B-9CF5-3CA31C3CB271}">
-  <dimension ref="B2:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CCEFF9-70E1-49E5-A56A-9FD6F8DF7A0B}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>44567</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>44568</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>44569</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>44570</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>44572</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>44573</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>44567</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>44574</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>44575</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>44568</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>44576</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>44569</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>44570</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>44571</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>44572</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>44573</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>44574</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>44575</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>44576</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="b">
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="b">
         <f>EXACT(D5, "NEW YORK")</f>
         <v>1</v>
       </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O1" r:id="rId1" location="Download_Practice_Workbook" display="https://www.exceldemy.com/excel-advanced-filter-criteria-range/ - Download_Practice_Workbook" xr:uid="{0888F077-E012-41E8-8962-AF4AB0168FF6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA071EAE-C322-4FC6-A94F-0ED8763A4B12}">
-  <dimension ref="B2:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E21A01-03F7-4C9E-8F0A-46DF234A00D7}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>44567</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>44568</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>44567</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>44569</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>44570</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="F8" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>44568</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>44572</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>44573</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>44574</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="F12" s="6">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>44569</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>44575</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>44576</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>44570</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>44571</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>44572</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>44573</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>44574</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>44575</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>44576</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O1" r:id="rId1" location="Download_Practice_Workbook" display="https://www.exceldemy.com/excel-advanced-filter-criteria-range/ - Download_Practice_Workbook" xr:uid="{922A51F8-70DB-4AA5-9CDC-B516877122CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD0EFE7-FC36-4CAF-B882-8E04D6036333}">
+  <dimension ref="B1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>44567</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>44568</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>44569</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>44570</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>44572</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>44573</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>44574</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>44575</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>44576</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O1" r:id="rId1" location="Download_Practice_Workbook" display="https://www.exceldemy.com/excel-advanced-filter-criteria-range/ - Download_Practice_Workbook" xr:uid="{C64FA7C8-A3E1-4755-84B5-37E75351483C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5223EF2-B17A-47ED-949C-1BF06749F782}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>44567</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>44568</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>320</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>44569</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>360</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>44570</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>200</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>480</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>44572</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>600</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>44573</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>240</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>44574</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>320</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>44575</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>250</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>44576</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
+        <v>200</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="b">
+        <f>OR(E5&gt;10,F5&gt;300)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O1" r:id="rId1" location="Download_Practice_Workbook" display="https://www.exceldemy.com/excel-advanced-filter-criteria-range/ - Download_Practice_Workbook" xr:uid="{BD13998E-ABF1-40F6-B422-51E0AD445E25}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
